--- a/Documentation/Power and Energy Calculations..xlsx
+++ b/Documentation/Power and Energy Calculations..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rspal\Documents\CU\ECEN5833 Fall 2021 files\Lectures\Add To lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devang\Desktop\Fall 2023\ECEN 5833 Low Power Embedded Design Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B3B386-862A-4F34-9F29-44A3EE19BEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23895323-BB51-42F6-94EE-9E2FACDF1522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1128" windowWidth="21600" windowHeight="11328" xr2:uid="{B4C216B4-1EFD-40A3-8A45-1CBE259223C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4C216B4-1EFD-40A3-8A45-1CBE259223C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="100">
   <si>
     <t>Wh</t>
   </si>
@@ -261,11 +261,104 @@
   <si>
     <t>=E/V/3.6</t>
   </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>HR and SPO2</t>
+  </si>
+  <si>
+    <t>Accelorometer</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Current (mA)</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Power (mW)</t>
+  </si>
+  <si>
+    <t>Microcontroller (Tx)</t>
+  </si>
+  <si>
+    <t>Deep Sleep</t>
+  </si>
+  <si>
+    <t>Power(uW</t>
+  </si>
+  <si>
+    <t>Device States</t>
+  </si>
+  <si>
+    <t>GPIO Init</t>
+  </si>
+  <si>
+    <t>GPIO Init/ Startup</t>
+  </si>
+  <si>
+    <t>Sensor Init + Read</t>
+  </si>
+  <si>
+    <t>Transmit</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Average Max Power:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Max Current: </t>
+  </si>
+  <si>
+    <t>These values consider the init current of 1.5 Amps</t>
+  </si>
+  <si>
+    <t>Average Min Current:</t>
+  </si>
+  <si>
+    <t>Average Min Power:</t>
+  </si>
+  <si>
+    <t>USE CASE 1</t>
+  </si>
+  <si>
+    <t>USE CASE 2</t>
+  </si>
+  <si>
+    <t>USE CASE 3</t>
+  </si>
+  <si>
+    <t>Refered from datasheet, 19dBm is 0.0794 Watts</t>
+  </si>
+  <si>
+    <t>mW</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Worst Case Time (sec)</t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -303,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +415,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -331,11 +436,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,12 +515,38 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1EDC1728-E350-413E-9989-11C5742EBC37}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -360,6 +556,1307 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Max Power (mW)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$8:$S$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GPIO Init/ Startup</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensor Init + Read</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transmit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Deep Sleep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$8:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225.09299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2899999999999995E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8224-4646-BCBB-D01190CC5E27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1290047776"/>
+        <c:axId val="1385354272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1290047776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1385354272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1385354272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1290047776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>583407</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A795555-0C73-8575-CED0-570643C58C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.11348</cdr:x>
+      <cdr:y>0.70399</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.25931</cdr:x>
+      <cdr:y>0.87066</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B01BFBC-3F78-24DB-13A1-4D3CF33A73FC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="516651" y="1931195"/>
+          <a:ext cx="663972" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4.95 mW</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>EM0/EM1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.30943</cdr:x>
+      <cdr:y>0.10446</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51621</cdr:x>
+      <cdr:y>0.29774</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FB8C4D-AB4C-4AFB-3865-C9ED4CD244FC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1408813" y="286544"/>
+          <a:ext cx="941480" cy="530226"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>225.093 mW</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>EM1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.56054</cdr:x>
+      <cdr:y>0.52025</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70637</cdr:x>
+      <cdr:y>0.62095</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4D19EC-58F1-51E2-2DE1-5A74DE42CC65}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2552092" y="1427162"/>
+          <a:ext cx="663972" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>80</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> mW</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>EM1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78452</cdr:x>
+      <cdr:y>0.70139</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93035</cdr:x>
+      <cdr:y>0.87876</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F384C859-BD81-F5A1-43E1-92DE6B1C7757}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3571863" y="1924052"/>
+          <a:ext cx="663971" cy="486568"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4.29 uW</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>EM3</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,550 +2156,1618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E836BC-5B4A-43E4-839B-A8A32FF62D2D}">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="L7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="12">
+        <f>0.0013</f>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="N8" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="O8" s="12">
+        <f>N8*M8</f>
+        <v>4.2899999999999995E-3</v>
+      </c>
+      <c r="P8" s="9">
+        <f>O8*1000</f>
+        <v>4.2899999999999991</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="9">
+        <f>1.5*3.3</f>
+        <v>4.9499999999999993</v>
+      </c>
+      <c r="U8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="L9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="N9" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="O9" s="9">
+        <f>N9*M9</f>
+        <v>28.049999999999997</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" ref="P9:P12" si="0">O9*1000</f>
+        <v>28049.999999999996</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="T9" s="9">
+        <f>O10+O11+O12</f>
+        <v>225.09299999999999</v>
+      </c>
+      <c r="U9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="L10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="9">
+        <v>67</v>
+      </c>
+      <c r="N10" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" ref="O10:O12" si="1">N10*M10</f>
+        <v>221.1</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="0"/>
+        <v>221100</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" s="9">
+        <v>80</v>
+      </c>
+      <c r="U10" t="s">
+        <v>94</v>
+      </c>
+      <c r="V10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="L11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="N11" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9599999999999995</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="0"/>
+        <v>3959.9999999999995</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="9">
+        <f>O8</f>
+        <v>4.2899999999999995E-3</v>
+      </c>
+      <c r="U11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="L12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="N12" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="O12" s="16">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="L13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="11">
+        <f>SUM(M9:M12)</f>
+        <v>76.710000000000008</v>
+      </c>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+      <c r="N14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="11">
+        <f>(M11+1+M9+(7*M8))/10</f>
+        <v>1.07091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="N15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="11">
+        <f>((2*M10)+M11+M12+1.5+M9+(4*M8))/10</f>
+        <v>14.521519999999999</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="N16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="11">
+        <f>(O11+1+O9+(7*O8))/10</f>
+        <v>3.3040029999999994</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="N17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" s="11">
+        <f>((2*O10)+O11+O12+(1.5*3.3)+O9+(4*O8))/10</f>
+        <v>47.921015999999995</v>
+      </c>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F19" t="s">
         <v>20</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H19" t="s">
         <v>3</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J19" t="s">
         <v>40</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K19" t="s">
         <v>17</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="R19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C20" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="4">
+        <v>76.709999999999994</v>
+      </c>
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S21" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="R22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S22" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="4">
+        <v>18000</v>
+      </c>
+      <c r="K23" t="s">
+        <v>45</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="S23" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S24" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="S25" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="3">
+        <f>+C20/C21</f>
+        <v>43.421052631578945</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="3">
+        <f>+J20/J21*1000</f>
+        <v>43.019163081736409</v>
+      </c>
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="S26" s="11">
+        <f>SUM(S20:S25)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
+        <f>+C20*C21</f>
+        <v>0.25079999999999997</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="3">
+        <f>+J20*J21</f>
+        <v>253.14299999999997</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3">
+        <f>+C21*C23</f>
+        <v>0.38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="3">
+        <f>+J21*J23/3600</f>
+        <v>383.55</v>
+      </c>
+      <c r="K32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>28</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P33" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="3">
+        <f>+C29*C23</f>
+        <v>1.2539999999999998</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="3">
+        <f>+J29*J23/3600</f>
+        <v>1265.7149999999997</v>
+      </c>
+      <c r="K35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="3">
+        <f>+P32*P33</f>
+        <v>1.56</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>30</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="5">
+        <f>+C35*3600</f>
+        <v>4514.3999999999996</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="5">
+        <f>+J35*3.6</f>
+        <v>4556.5739999999987</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="7">
+        <f>+P35*3.6</f>
+        <v>5.6160000000000005</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="6">
+        <f>+C35*860.42065</f>
+        <v>1078.9674951</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="6">
+        <f>+J35*0.86042065</f>
+        <v>1089.0473230147497</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="4">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="4">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D41" t="s">
         <v>4</v>
       </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="4">
-        <v>3</v>
-      </c>
-      <c r="K18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="4">
-        <v>15</v>
-      </c>
-      <c r="K19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="4">
-        <f>60*60*8</f>
-        <v>28800</v>
-      </c>
-      <c r="K20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="3">
-        <f>+C18/C19</f>
-        <v>200</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="3">
-        <f>+J18/J19*1000</f>
-        <v>200</v>
-      </c>
-      <c r="K23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3">
-        <f>+C18*C19</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="3">
-        <f>+J18*J19</f>
-        <v>45</v>
-      </c>
-      <c r="K26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3">
-        <f>+C19*C20</f>
-        <v>0.12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="3">
-        <f>+J19*J20/3600</f>
-        <v>120</v>
-      </c>
-      <c r="K29" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>28</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P30" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="3">
-        <f>+C26*C20</f>
-        <v>0.36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="3">
-        <f>+J26*J20/3600</f>
-        <v>360</v>
-      </c>
-      <c r="K32" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P32" s="3">
-        <f>+P29*P30</f>
-        <v>1.56</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>30</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="5">
-        <f>+C32*3600</f>
-        <v>1296</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="5">
-        <f>+J32*3.6</f>
-        <v>1296</v>
-      </c>
-      <c r="K33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P33" s="7">
-        <f>+P32*3.6</f>
-        <v>5.6160000000000005</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>1</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="6">
-        <f>+C32*860.42065</f>
-        <v>309.75143400000002</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="6">
-        <f>+J32*0.86042065</f>
-        <v>309.75143400000002</v>
-      </c>
-      <c r="K34" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="4">
-        <v>120</v>
-      </c>
-      <c r="D37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="4">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38">
+      <c r="H41">
         <f>6*57</f>
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="5">
-        <f>+C37*C38*3.6</f>
-        <v>1296</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="4">
-        <v>8.2249999999999996</v>
+      <c r="C42" s="5">
+        <f>+C40*C41*3.6</f>
+        <v>1296</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="F42" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="4">
-        <v>2.35</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C46" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="6">
-        <f>+C42/C43/3.6</f>
-        <v>0.9722222222222221</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C47" s="6">
+        <f>+C45/C46/3.6</f>
+        <v>297.61904761904759</v>
+      </c>
+      <c r="D47" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>40</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="K66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="I67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="4">
+        <v>76.709999999999994</v>
+      </c>
+      <c r="K67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="4">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>44</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="4">
+        <v>18000</v>
+      </c>
+      <c r="K68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="3">
+        <f>+C66/C67</f>
+        <v>3299.9999999999995</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>60</v>
+      </c>
+      <c r="J71" s="3">
+        <f>+J66/J67*1000</f>
+        <v>43.019163081736409</v>
+      </c>
+      <c r="K71" t="s">
+        <v>7</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3">
+        <f>+C66*C67</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" s="3">
+        <f>+J66*J67</f>
+        <v>253.14299999999997</v>
+      </c>
+      <c r="K74" t="s">
+        <v>28</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="3">
+        <f>+C67*C68</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="3">
+        <f>+J67*J68/3600</f>
+        <v>383.55</v>
+      </c>
+      <c r="K77" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="3">
+        <f>+C74*C68</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" s="3">
+        <f>+J74*J68/3600</f>
+        <v>1265.7149999999997</v>
+      </c>
+      <c r="K80" t="s">
+        <v>30</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="5">
+        <f>+C80*3600</f>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="5">
+        <f>+J80*3.6</f>
+        <v>4556.5739999999987</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="6">
+        <f>+C80*860.42065</f>
+        <v>14.196940725000001</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" t="s">
+        <v>23</v>
+      </c>
+      <c r="J82" s="6">
+        <f>+J80*0.86042065</f>
+        <v>1089.0473230147497</v>
+      </c>
+      <c r="K82" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="4">
+        <v>120</v>
+      </c>
+      <c r="D85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="4">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <f>6*57</f>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="5">
+        <f>+C85*C86*3.6</f>
+        <v>1296</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="4">
+        <v>100</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="6">
+        <f>+C90/C91/3.6</f>
+        <v>6.6137566137566139</v>
+      </c>
+      <c r="D92" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" t="s">
+        <v>3</v>
+      </c>
+      <c r="J97" t="s">
+        <v>40</v>
+      </c>
+      <c r="K97" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="K98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="4">
+        <v>76.709999999999994</v>
+      </c>
+      <c r="K99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="4">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>44</v>
+      </c>
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="4">
+        <v>18000</v>
+      </c>
+      <c r="K100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="3">
+        <f>+C98/C99</f>
+        <v>235.71428571428569</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" t="s">
+        <v>60</v>
+      </c>
+      <c r="J103" s="3">
+        <f>+J98/J99*1000</f>
+        <v>43.019163081736409</v>
+      </c>
+      <c r="K103" t="s">
+        <v>7</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="3">
+        <f>+C98*C99</f>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" t="s">
+        <v>9</v>
+      </c>
+      <c r="J106" s="3">
+        <f>+J98*J99</f>
+        <v>253.14299999999997</v>
+      </c>
+      <c r="K106" t="s">
+        <v>28</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>39</v>
+      </c>
+      <c r="H108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="3">
+        <f>+C99*C100</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I109" t="s">
+        <v>12</v>
+      </c>
+      <c r="J109" s="3">
+        <f>+J99*J100/3600</f>
+        <v>383.55</v>
+      </c>
+      <c r="K109" t="s">
+        <v>29</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>62</v>
+      </c>
+      <c r="H111" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="3">
+        <f>+C106*C100</f>
+        <v>0.23099999999999998</v>
+      </c>
+      <c r="D112" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J112" s="3">
+        <f>+J106*J100/3600</f>
+        <v>1265.7149999999997</v>
+      </c>
+      <c r="K112" t="s">
+        <v>30</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="5">
+        <f>+C112*3600</f>
+        <v>831.59999999999991</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I113" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" s="5">
+        <f>+J112*3.6</f>
+        <v>4556.5739999999987</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="6">
+        <f>+C112*860.42065</f>
+        <v>198.75717014999998</v>
+      </c>
+      <c r="D114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" t="s">
+        <v>23</v>
+      </c>
+      <c r="J114" s="6">
+        <f>+J112*0.86042065</f>
+        <v>1089.0473230147497</v>
+      </c>
+      <c r="K114" t="s">
+        <v>27</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>67</v>
+      </c>
+      <c r="C117" s="4">
+        <v>120</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" s="4">
+        <v>3</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+      <c r="H118">
+        <f>6*57</f>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="5">
+        <f>+C117*C118*3.6</f>
+        <v>1296</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>41</v>
+      </c>
+      <c r="C123" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="6">
+        <f>+C122/C123/3.6</f>
+        <v>66.137566137566125</v>
+      </c>
+      <c r="D124" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A96:L96"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>